--- a/Hardware/greg_xmix/Parts List.xlsx
+++ b/Hardware/greg_xmix/Parts List.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flo/Documents/src/IoTaWatt/Hardware/greg_xmix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4730FEBF-6362-6041-95E6-A3483EC3E16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FAF401-CDEF-6B4B-9316-C486D618CE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="3120" windowWidth="36460" windowHeight="20700" xr2:uid="{ADAA17EA-D08E-3B46-994E-D10F6DCC3CF5}"/>
+    <workbookView xWindow="6340" yWindow="2180" windowWidth="40800" windowHeight="22260" xr2:uid="{ADAA17EA-D08E-3B46-994E-D10F6DCC3CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
   <si>
     <t>Part</t>
   </si>
@@ -291,16 +291,23 @@
   </si>
   <si>
     <t>https://www.amazon.de/Verbatim-44082-Klasse-Micro-Adapter/dp/B00CBAUIEU/</t>
+  </si>
+  <si>
+    <t>55 EUR pro Stk</t>
+  </si>
+  <si>
+    <t>x5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="171" formatCode="_-[$€-C07]\ * #,##0.0000_-;\-[$€-C07]\ * #,##0.0000_-;_-[$€-C07]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="175" formatCode="_-[$$-409]* #,##0.0000_ ;_-[$$-409]* \-#,##0.0000\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="_-[$€-C07]\ * #,##0.0000_-;\-[$€-C07]\ * #,##0.0000_-;_-[$€-C07]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.0000_ ;_-[$$-409]* \-#,##0.0000\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="167" formatCode="_-[$€-C07]\ * #,##0.0000_-;\-[$€-C07]\ * #,##0.0000_-;_-[$€-C07]\ * &quot;-&quot;????_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -356,17 +363,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -682,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF2CA95-AC7C-C74C-838B-5D2F8DEB9E57}">
-  <dimension ref="C3:L31"/>
+  <dimension ref="C3:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -694,13 +701,13 @@
     <col min="4" max="4" width="52.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="8" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="7" customWidth="1"/>
     <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
@@ -715,13 +722,13 @@
       <c r="G3" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>66</v>
       </c>
       <c r="I3" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>68</v>
       </c>
       <c r="K3" t="s">
@@ -747,10 +754,10 @@
       <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>4.3E-3</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
@@ -768,10 +775,10 @@
       <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>1.32E-2</v>
       </c>
-      <c r="I5" s="6"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
@@ -789,7 +796,7 @@
       <c r="G6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -809,7 +816,7 @@
       <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>4.7E-2</v>
       </c>
       <c r="I7" s="1"/>
@@ -830,7 +837,7 @@
       <c r="G8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>1.8E-3</v>
       </c>
     </row>
@@ -850,7 +857,7 @@
       <c r="G9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>2.86E-2</v>
       </c>
     </row>
@@ -870,7 +877,7 @@
       <c r="G10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>3.1899999999999998E-2</v>
       </c>
     </row>
@@ -890,7 +897,7 @@
       <c r="G11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>3.6700000000000003E-2</v>
       </c>
     </row>
@@ -910,7 +917,7 @@
       <c r="G12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>1.5436000000000001</v>
       </c>
     </row>
@@ -930,7 +937,7 @@
       <c r="G13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>0.13109999999999999</v>
       </c>
     </row>
@@ -950,7 +957,7 @@
       <c r="G14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>4.62</v>
       </c>
     </row>
@@ -970,7 +977,7 @@
       <c r="G15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>1.6402000000000001</v>
       </c>
     </row>
@@ -990,7 +997,7 @@
       <c r="G16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>0.21340000000000001</v>
       </c>
     </row>
@@ -1008,11 +1015,11 @@
         <v>14</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="9"/>
+      <c r="H17" s="8"/>
       <c r="I17" t="s">
         <v>77</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>0.77039999999999997</v>
       </c>
     </row>
@@ -1030,11 +1037,11 @@
         <v>1</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="9"/>
+      <c r="H18" s="8"/>
       <c r="I18" t="s">
         <v>76</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>1.39</v>
       </c>
     </row>
@@ -1052,11 +1059,11 @@
         <v>3</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="9"/>
+      <c r="H19" s="8"/>
       <c r="I19" t="s">
         <v>75</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>1.38</v>
       </c>
     </row>
@@ -1074,11 +1081,11 @@
         <v>1</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="9"/>
+      <c r="H20" s="8"/>
       <c r="I20" t="s">
         <v>74</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>1.86</v>
       </c>
     </row>
@@ -1096,11 +1103,11 @@
         <v>1</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="9"/>
+      <c r="H21" s="8"/>
       <c r="I21" t="s">
         <v>73</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>1.05</v>
       </c>
     </row>
@@ -1118,11 +1125,11 @@
         <v>1</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="9"/>
+      <c r="H22" s="8"/>
       <c r="I22" t="s">
         <v>79</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <v>0.09</v>
       </c>
     </row>
@@ -1140,11 +1147,11 @@
         <v>1</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="6" t="s">
+      <c r="H23" s="8"/>
+      <c r="I23" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <v>0.95</v>
       </c>
     </row>
@@ -1162,11 +1169,11 @@
         <v>1</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="9"/>
-      <c r="K24" s="7" t="s">
+      <c r="H24" s="8"/>
+      <c r="K24" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="4">
         <v>4.3</v>
       </c>
     </row>
@@ -1180,46 +1187,51 @@
         <v>1</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="9"/>
-      <c r="K25" s="7" t="s">
+      <c r="H25" s="8"/>
+      <c r="K25" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="4">
         <v>5.53</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C26" s="3"/>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="7">
         <f>SUMPRODUCT(F4:F23,H4:H23)</f>
         <v>14.446400000000001</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="4">
         <f>SUMPRODUCT(F4:F23,J4:J23)</f>
         <v>20.265599999999999</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="4">
         <f>SUMPRODUCT(F4:F25,L4:L25)</f>
         <v>9.83</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C27" s="3"/>
-    </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C29" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" s="7">
+        <v>111</v>
+      </c>
+      <c r="J28" s="4">
+        <f>J26*5</f>
+        <v>101.328</v>
+      </c>
+      <c r="L28" s="9">
+        <f>L26*5</f>
+        <v>49.15</v>
+      </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C31" s="3"/>
+      <c r="H30" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
